--- a/sicklecell.xlsx
+++ b/sicklecell.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>67.12328767123287</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>68.42105263157895</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="F2">
         <v>33</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>9.58904109589041</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
       <c r="E3">
-        <v>21.05263157894737</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -446,16 +446,16 @@
     </row>
     <row r="4">
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>23.28767123287671</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
-        <v>10.52631578947368</v>
+        <v>22.97297297297298</v>
       </c>
       <c r="F4">
         <v>2</v>

--- a/sicklecell.xlsx
+++ b/sicklecell.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>66.66666666666666</v>
+        <v>67.12328767123287</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>67.56756756756756</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="F2">
         <v>33</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>9.58904109589041</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>9.45945945945946</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -446,16 +446,16 @@
     </row>
     <row r="4">
       <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>23.28767123287671</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>22.97297297297298</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F4">
         <v>2</v>
